--- a/THolt2411.xlsx
+++ b/THolt2411.xlsx
@@ -3,12 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8160" yWindow="1660" windowWidth="30240" windowHeight="17760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8160" yWindow="580" windowWidth="30240" windowHeight="17760" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="url2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="digikey" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="verical" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ppn" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HQ_hot" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HQ_hot_result" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ppn2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="上海">#REF!</definedName>
@@ -21,7 +25,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="宋体"/>
@@ -58,8 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,7 +435,7 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -464,10 +472,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col width="14.1640625" customWidth="1" min="1" max="1"/>
+    <col width="15.6640625" customWidth="1" min="2" max="2"/>
+    <col width="16.83203125" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -984,18 +997,2690 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col width="23.5" customWidth="1" min="1" max="1"/>
+    <col width="31.1640625" customWidth="1" min="2" max="2"/>
+    <col width="21.83203125" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HI-1570PSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Monolithic Variable Amplitude Transceiver 20-Pin SOIC W</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HI-1573PSM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dual Transmitter/Receiver 20-Pin SOIC W EP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HI-15790PCTF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3.3V Monolithic Dual Transceiver</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HI-2130LBT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 121-Pin BGA3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HI-3002PCIF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CAN 1Mbps Normal/Standby 5V 16-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HI-3110PSI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CAN 1Mbps Normal/Sleep 3.3V 18-Pin SOIC W</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HI3110PSIF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CAN 1Mbps Normal/Sleep 3.3V 18-Pin SOIC W</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HI-3182CDI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 16-Pin CSBDIP</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HI3182PJI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 28-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HI-3182PJIF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 28-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HI3182PST</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 16-Pin SOIC W EP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HI-3221PCIF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Octal Transmitter Hexadecimal Receiver 72-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HI-3222PCIF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Quad Transmitter Octal Receiver 48-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HI3282PJI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HI-3282PJIF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HI-3282PQI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HI-3583PQIF-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HI3584PQT10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HI-3585PCI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Silicon Gate CMOS Device 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HI-3585PCTF</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HI-3585PQT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 44-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HI-35870PQT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Transmitter with SPI Interface</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HI-3588PQIF</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Single Receiver 44-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HI-3593PCIF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HI-3593PCT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HI-3593PQIF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HI-3593PQTF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HI-3717PCI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HI-4850CRM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Controlled Transceiver 1TX 1RX 5Mbps 8-Pin CDIP</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HI6010CT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 28-Pin SBCDIP</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HI-6120PQI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Serial Peripheral Interface</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HI-6121PCI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Serial Peripheral Interface</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HI-62003PQT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fully Integrated MIL-STD-1553 BC/RT/MT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HI-8282APJI-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Dual Receiver 44-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HI-8282C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 40-Pin CSBDIP</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HI-8282CT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Dual Receiver 40-Pin SBCDIP</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HI-8282J-44</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HI-8282U</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 44-Pin CQUAD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HI-8382JT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 28-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HI-8382PDTF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 16-Pin PDIP</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HI-8420PSIF</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sensor and Detector Interface 5.5V 5mA 16-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HI-84210PST</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sensor and Detector Interface 5.5V 5mA 16-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HI8424PTT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sensor and Detector Interface 5.5V 5mA 20-Pin TSSOP</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HI-8435PCI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sensor and Detector Interface 3.6V 15mA Serial Interface 44-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HI-8444PSI-10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Quad Receiver 20-Pin TSSOP</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HI-8444PSTF-10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Quad Receiver 20-Pin TSSOP Tube</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HI-8448PSI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Line Receiver 8RX 38-Pin TSSOP</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HI-8460PCIF</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Single Receiver 16-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HI-8460PCTF</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Single Receiver 16-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HI8570PSIF</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Dual Transmitter 8-Pin SOIC N EP</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HI8583CJT10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin CQUAD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HI-8583PQI-10</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HI-8583PQT-10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HI-8584PQI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HI-8584PQIF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HI8584PQT10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HI-8585PSI</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Dual Transmitter Single Receiver 8-Pin SOIC N EP</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HI-8585PSIF</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Single Transmitter/Receiver 8-Pin SOIC N EP</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Single Transmitter 8-Pin SOIC N EP Tube</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HI-8588PSIF-10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Single Receiver 8-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HI-8591PCI-40</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Single Receiver 16-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HI-8591PCIF</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Single Receiver 16-Pin QFN EP</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HI-8591PSI-40</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Single Receiver 8-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HI-8591PSM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Single Receiver 8-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HI-8592PSI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dual Transmitter 14-Pin SOIC N</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HI-8592PSMF</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Single-Rail Differential Line Driver</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HI-8592PST</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Transceiver 14-Pin SOIC N EP</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HI-8596PSI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SINGLE-RAIL ARINC 429 DIFFERENTIAL LINE DRIVER</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HI-8684PJI-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Single Receiver 20-Pin PLCC</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PM-DB2702+</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Databus Interface Transformers, Low Profile Single/Dual</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PM-DB2762</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Telecom Transformer 1:2.5 1.5Ohm Prim. DCR 3.5Ohm Sec. DCR 10 Terminal Gull Wing SMD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PM-DB2771+</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PM-DB2771+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="35.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HI-1570PSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HI-1573PSM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HI-15790PCTF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HI-2130LBT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HI-3002PCIF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HI-3110PSI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HI3110PSIF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HI-3182CDI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HI3182PJI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HI-3182PJIF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HI3182PST</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HI-3221PCIF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HI-3222PCIF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HI3282PJI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HI-3282PJIF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HI-3282PQI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HI-3583PQIF-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HI3584PQT10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HI-3585PCI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HI-3585PCTF</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HI-3585PQT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HI-35870PQT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HI-3588PQIF</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HI-3593PCIF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HI-3593PCT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HI-3593PQIF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HI-3593PQTF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HI-3717PCI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HI-4850CRM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HI6010CT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HI-6120PQI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HI-6121PCI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HI-62003PQT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HI-8282APJI-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HI-8282C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HI-8282CT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HI-8282J-44</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HI-8282U</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HI-8382JT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HI-8382PDTF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HI-8420PSIF</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HI-84210PST</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HI8424PTT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HI-8435PCI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HI-8444PSI-10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HI-8444PSTF-10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HI-8448PSI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HI-8460PCIF</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HI-8460PCTF</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HI8570PSIF</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HI8583CJT10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HI-8583PQI-10</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HI-8583PQT-10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HI-8584PQI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HI-8584PQIF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HI8584PQT10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HI-8585PSI</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HI-8585PSIF</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HI-8588PSIF-10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HI-8591PCI-40</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HI-8591PCIF</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HI-8591PSI-40</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HI-8591PSM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HI-8592PSI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HI-8592PSMF</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HI-8592PST</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HI-8596PSI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HI-8684PJI-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PM-DB2702+</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PM-DB2762</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PM-DB2771+</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HI-3111PSTF</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HI-3110PSIF</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HI-3111PSIF</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HI-3220PQIF</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HI-4853CRH</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HI-4855PSTF</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HI-4854PSTF</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>HI-5200PCWF</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>HI-4855PSIF</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>HI-4850PSIF</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HI-3002PCIF</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>HI-8585PSIF</t>
+          <t>HI-1570PSI</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -1005,19 +3690,27 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Single Transmitter/Receiver 8-Pin SOIC N EP</t>
+          <t>['2', '34', '0', '7', '0', '0', '11', '0', '27', '11', '4', '28', '0']</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
+          <t>['70', '11', '7', '0', '17', '9', '57', '46', '42', '2', '89', '20']</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45616.42436342593</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HI3182PST</t>
+          <t>HI-1573PSM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1027,19 +3720,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Single Transmitter/Receiver 16-Pin SOIC W EP</t>
+          <t>['0', '2', '0', '18', '11', '11', '14', '0', '20', '6', '15', '7', '10']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
+          <t>['49', '58', '134', '82', '97', '315', '223', '91', '32', '112', '49', '54']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45616.42618055556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HI-8591PCI-40</t>
+          <t>HI-2130LBT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1049,19 +3750,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Single Receiver 16-Pin QFN EP</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
+          <t>['0', '15', '1', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45616.43065972222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HI-8596PSI</t>
+          <t>HI-3002PCIF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1071,41 +3780,57 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SINGLE-RAIL ARINC 429 DIFFERENTIAL LINE DRIVER</t>
+          <t>['0', '1', '1', '0', '0', '0', '0', '3', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
+          <t>['12', '4', '4', '1', '1', '3', '2', '2', '2', '2', '5', '0']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45616.43324074074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HI-8282APJI-10</t>
+          <t>HI-3002PCIF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Holt Integrated Circuits</t>
+          <t>Holt Integrated Circuits Inc.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dual Receiver 44-Pin PLCC</t>
+          <t>['0', '1', '1', '0', '0', '0', '0', '3', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
+          <t>['12', '4', '4', '1', '1', '3', '2', '2', '2', '2', '5', '0']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45616.47819444445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HI-8592PST</t>
+          <t>HI-3110PSI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1115,85 +3840,117 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Transceiver 14-Pin SOIC N EP</t>
+          <t>['0', '0', '0', '0', '0', '0', '1', '0', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
+          <t>['11', '0', '0', '0', '0', '16', '0', '3', '4', '3', '0', '1']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45616.43556712963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HI-3593PQTF</t>
+          <t>HI-3110PSIF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Holt Integrated Circuits</t>
+          <t>Holt Integrated Circuits Inc.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Single Transmitter Dual Receiver 44-Pin PQFP</t>
+          <t>['0', '1', '7', '0', '0', '0', '10', '0', '1', '6', '7', '42', '16']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
+          <t>['28', '50', '13', '6', '0', '38', '20', '49', '62', '21', '14', '11']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45616.45509259259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HI-3585PCTF</t>
+          <t>HI-3111PSIF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Holt Integrated Circuits</t>
+          <t>Holt Integrated Circuits Inc.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Single Transmitter/Receiver 44-Pin QFN EP</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '6', '0', '1', '3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
+          <t>['4', '0', '6', '0', '0', '0', '0', '3', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45616.45704861111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HI-8586PSI</t>
+          <t>HI-3111PSTF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Holt Integrated Circuits</t>
+          <t>Holt Integrated Circuits Inc.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Single Transmitter 8-Pin SOIC N EP Tube</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '6', '2', '0', '0']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45616.45289351852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HI-8282U</t>
+          <t>HI-3182CDI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1203,19 +3960,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Single Transmitter Dual Receiver 44-Pin CQUAD</t>
+          <t>['23', '48', '3', '14', '15', '36', '42', '0', '3', '13', '7', '0', '0']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
+          <t>['0', '0', '0', '0', '0', '15', '7', '0', '6', '16', '78', '107']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45616.43998842593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HI-8282J-44</t>
+          <t>HI-3182PJIF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1225,41 +3990,57 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Single Transmitter Dual Receiver 44-Pin PLCC</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45616.44421296296</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HI-1570PSI</t>
+          <t>HI-3220PQIF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Holt Integrated Circuits</t>
+          <t>Holt Integrated Circuits Inc.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Monolithic Variable Amplitude Transceiver 20-Pin SOIC W</t>
+          <t>['47', '0', '0', '5', '0', '0', '21', '2', '16', '12', '6', '29', '25']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
+          <t>['171', '346', '142', '156', '45', '27', '164', '53', '84', '68', '50', '32']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>45616.45945601852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HI-8420PSIF</t>
+          <t>HI-3221PCIF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1269,19 +4050,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sensor and Detector Interface 5.5V 5mA 16-Pin SOIC N</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
+          <t>['0', '6', '0', '0', '0', '3', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>45616.44825231482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HI-3583PQIF-10</t>
+          <t>HI-3222PCIF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1291,19 +4080,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Single Transmitter Dual Receiver 52-Pin PQFP</t>
+          <t>['0', '0', '1', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
+          <t>['5', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>45616.45074074074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HI8424PTT</t>
+          <t>HI-3282PJIF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1313,16 +4110,4463 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sensor and Detector Interface 5.5V 5mA 20-Pin TSSOP</t>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '1', '0', '0']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>511</t>
-        </is>
+          <t>['0', '0', '0', '0', '0', '2', '15', '15', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>45616.46009259259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HI-3282PQI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['6', '0', '0', '16', '3', '3', '15', '3', '1', '10', '26', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['61', '98', '16', '19', '5', '29', '22', '44', '12', '20', '6', '40']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>45616.46232638889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HI-3583PQIF-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>45616.46462962963</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HI-3585PCI</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['2', '0', '0', '0', '0', '0', '0', '0', '0', '0', '7', '1', '0']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['124', '89', '30', '17', '22', '8', '14', '76', '11', '31', '11', '0']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>45616.46858796296</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HI-3585PCTF</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>45616.47070601852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HI-3585PQT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['14', '24', '43', '7', '0', '1', '14', '0', '2', '0', '0', '11', '12']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['14', '44', '34', '213', '317', '237', '160', '107', '59', '12', '154', '24']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45616.47269675926</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HI-3588PQIF</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['19', '59', '45', '63', '55', '84', '53', '73', '21', '23', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45616.4271875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '28', '15', '4', '1', '0', '0', '4', '1', '6', '0']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['84', '95', '55', '64', '75', '56', '150', '51', '32', '17', '8', '53']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45616.42946759259</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HI-3593PCIF</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '2', '0', '0', '0', '0', '3', '7', '0', '5']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['11', '49', '28', '22', '20', '15', '27', '17', '0', '36', '0', '1']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45616.43143518519</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HI-3593PCT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['6', '3', '0', '0', '0', '0', '0', '0', '0', '9', '0', '0', '12']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['105', '21', '3', '40', '23', '0', '6', '28', '0', '2', '12', '0']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45616.43340277778</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HI-3593PQIF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['6', '18', '7', '20', '24', '10', '92', '7', '53', '90', '129', '16', '16']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['145', '105', '83', '42', '70', '129', '225', '162', '160', '236', '122', '153']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45616.43519675926</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HI-3593PQTF</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['6', '9', '0', '0', '0', '0', '14', '3', '2', '3', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['29', '132', '47', '84', '56', '83', '10', '86', '69', '14', '31', '17']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45616.43747685185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HI-3717PCI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '4', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['1', '0', '0', '0', '0', '0', '0', '11', '5', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45616.43994212963</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HI-4850CRM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45616.44244212963</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HI-4850PSIF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['0', '1', '0', '0', '0', '2', '0', '0', '0', '0', '0', '2', '10']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['6', '4', '11', '4', '0', '18', '6', '17', '0', '1', '2', '2']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45616.47570601852</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HI-4853CRH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['2', '0', '4', '18', '0', '9', '2', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45616.46180555555</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HI-4854PSTF</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['0', '3', '0', '0', '0', '3', '0', '0', '0', '18', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['12', '33', '32', '3', '2', '24', '10', '27', '4', '30', '4', '2']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>45616.46790509259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HI-4855PSIF</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['2', '0', '5', '0', '0', '18', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45616.4725462963</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HI-4855PSTF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['0', '2', '2', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['0', '18', '0', '0', '0', '22', '16', '0', '2', '4', '3', '0']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45616.46587962963</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HI-5200PCWF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['21', '0', '0', '9', '0', '0', '6', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45616.47021990741</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HI-6120PQI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>45616.44658564815</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HI-6121PCI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['19', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['7', '0', '0', '0', '0', '4', '0', '5', '0', '0', '19', '0']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>45616.44890046296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HI-62003PQT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>45616.45105324074</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HI-8282APJI-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['3', '10', '28', '12', '16', '0', '0', '0', '2', '1', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['122', '103', '0', '29', '7', '12', '8', '16', '25', '23', '47', '28']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>45616.4533912037</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HI-8282C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '7', '0', '0', '0', '1', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45616.45549768519</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HI-8282CT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>45616.45774305556</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HI-8282J-44</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['3', '26', '0', '0', '0', '0', '0', '0', '20', '2', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['172', '52', '19', '11', '19', '12', '30', '11', '1', '19', '41', '1']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45616.46024305555</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HI-8282U</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['2', '5', '3', '2', '0', '30', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>45616.46261574074</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HI-8382JT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>45616.4646875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HI-8382PDTF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['0', '0', '2', '0', '0', '0', '6', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>45616.4665625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HI-8420PSIF</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '68', '11', '6', '6', '0', '0', '0', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['360', '84', '17', '10', '13', '92', '28', '2', '33', '20', '4', '95']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>45616.46900462963</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HI-84210PST</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45616.4716087963</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HI-8435PCI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['0', '3', '7', '0', '0', '0', '0', '0', '1', '11', '11', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['16', '34', '7', '0', '0', '20', '0', '15', '101', '0', '11', '0']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45616.42952546296</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HI-8444PSI-10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['4', '32', '26', '5', '11', '16', '8', '2', '4', '0', '25', '33', '27']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['94', '44', '55', '31', '32', '62', '127', '121', '75', '56', '84', '45']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45616.43127314815</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HI-8444PSTF-10</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['0', '0', '41', '14', '0', '0', '0', '0', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['3', '0', '1', '0', '0', '98', '2', '5', '5', '0', '41', '14']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45616.43356481481</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HI-8448PSI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '6', '0', '0', '3', '0', '0', '12', '0', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['43', '91', '9', '20', '12', '10', '3', '0', '0', '2', '2', '7']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45616.43614583334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HI-8460PCIF</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['0', '0', '2', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>45616.43862268519</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HI-8460PCTF</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>45616.44085648148</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HI-8583PQI-10</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['14', '129', '24', '7', '14', '0', '0', '1', '0', '6', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>45616.44696759259</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HI-8583PQT-10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '2', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['3', '21', '42', '3', '0', '3', '25', '1', '1', '12', '10', '2']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45616.44940972222</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HI-8584PQI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '0', '0', '0', '0', '0', '4', '13', '1', '0']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['2', '1', '0', '0', '6', '1', '0', '1', '0', '0', '20', '0']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>45616.45143518518</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HI-8584PQIF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['3', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '3', '0', '0', '0', '0', '0', '0', '1', '0']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45616.45344907408</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HI-8585PSI</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['120', '128', '68', '132', '67', '67', '92', '1', '146', '97', '41', '24', '71']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['919', '1111', '749', '505', '294', '641', '709', '598', '356', '488', '575', '357']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45616.45784722222</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HI-8585PSIF</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['2', '0', '0', '0', '4', '0', '4', '0', '0', '15', '18', '3', '31']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['158', '158', '118', '93', '220', '42', '178', '58', '123', '104', '40', '8']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45616.46019675926</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['56', '32', '29', '25', '45', '30', '30', '1', '42', '32', '15', '51', '20']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['282', '175', '290', '117', '43', '395', '62', '92', '47', '52', '137', '133']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>45616.46277777778</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['56', '32', '29', '25', '45', '30', '30', '1', '42', '32', '15', '51', '20']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['282', '175', '290', '117', '43', '395', '62', '92', '47', '52', '137', '133']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45616.46372685185</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HI-8588PSIF-10</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['3', '12', '0', '0', '1', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['6', '0', '0', '8', '0', '0', '0', '0', '7', '3', '16', '1']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45616.46512731481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HI-8591PCI-40</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['15', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['0', '1', '0', '0', '0', '1', '0', '3', '0', '1', '15', '0']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45616.46770833333</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HI-8591PCIF</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['0', '12', '13', '0', '0', '1', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45616.47015046296</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HI-8591PSI-40</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '3', '4', '23', '1', '0', '0', '0', '0', '0', '19']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['19', '13', '9', '2', '5', '26', '8', '14', '23', '1', '2', '33']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>45616.4727662037</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HI-8591PSM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['0', '5', '0', '0', '0', '3', '0', '0', '0', '4', '6', '3', '0']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['13', '32', '77', '1', '0', '17', '20', '12', '128', '3', '53', '3']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45616.47533564815</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HI-8592PSI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['18', '22', '11', '19', '6', '2', '22', '0', '0', '5', '22', '40', '4']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['23', '26', '20', '9', '22', '54', '33', '14', '25', '5', '56', '50']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>45616.47765046296</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HI-8592PSMF</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['0', '3', '3', '2', '0', '1', '0', '0', '0', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45616.43726851852</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HI-8592PST</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['14', '0', '0', '0', '0', '0', '4', '12', '50', '2', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['0', '7', '6', '0', '12', '4', '0', '0', '0', '20', '19', '6']</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45616.4396412037</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HI-8596PSI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['54', '34', '28', '17', '29', '14', '17', '5', '20', '10', '16', '35', '25']</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['283', '96', '148', '169', '128', '75', '225', '114', '59', '161', '154', '81']</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>45616.44206018518</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HI-8684PJI-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>45616.44460648148</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HI3110PSIF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '2', '0']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['1', '1', '0', '0', '0', '0', '0', '0', '5', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45616.43780092592</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HI3182PJI</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45616.44241898148</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HI3182PST</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45616.44648148148</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HI6010CT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>45616.44472222222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HI8570PSIF</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['4', '0', '10', '0', '0', '0', '0', '0', '1', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45616.44271990741</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HI8584PQT10</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45616.45578703703</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PM-DB2702+</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>45616.44695601852</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PM-DB2762</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>['15', '8', '26', '3', '5', '0', '18', '4', '16', '33', '16', '32', '23']</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['169', '40', '12', '93', '56', '172', '58', '59', '30', '88', '62', '34']</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>45616.44888888889</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PM-DB2771+</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>THolt2411</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45616.45075231481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HI-8585PSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>['120', '128', '68', '132', '67', '67', '92', '1', '146', '97', '41', '24', '71']</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>['919', '1111', '749', '505', '294', '641', '709', '598', '356', '488', '575', '357']</t>
+        </is>
+      </c>
+      <c r="E1" t="n">
+        <v>583.37</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['56', '32', '29', '25', '45', '30', '30', '1', '42', '32', '15', '51', '20']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['282', '175', '290', '117', '43', '395', '62', '92', '47', '52', '137', '133']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>143.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['56', '32', '29', '25', '45', '30', '30', '1', '42', '32', '15', '51', '20']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['282', '175', '290', '117', '43', '395', '62', '92', '47', '52', '137', '133']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>143.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HI-3593PQIF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['6', '18', '7', '20', '24', '10', '92', '7', '53', '90', '129', '16', '16']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['145', '105', '83', '42', '70', '129', '225', '162', '160', '236', '122', '153']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>140.93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HI-8596PSI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['54', '34', '28', '17', '29', '14', '17', '5', '20', '10', '16', '35', '25']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['283', '96', '148', '169', '128', '75', '225', '114', '59', '161', '154', '81']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>137.07</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HI-3585PQT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['14', '24', '43', '7', '0', '1', '14', '0', '2', '0', '0', '11', '12']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['14', '44', '34', '213', '317', '237', '160', '107', '59', '12', '154', '24']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>113.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HI-1573PSM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['0', '2', '0', '18', '11', '11', '14', '0', '20', '6', '15', '7', '10']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['49', '58', '134', '82', '97', '315', '223', '91', '32', '112', '49', '54']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HI-8585PSIF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['2', '0', '0', '0', '4', '0', '4', '0', '0', '15', '18', '3', '31']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['158', '158', '118', '93', '220', '42', '178', '58', '123', '104', '40', '8']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>104.13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HI-3220PQIF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['47', '0', '0', '5', '0', '0', '21', '2', '16', '12', '6', '29', '25']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['171', '346', '142', '156', '45', '27', '164', '53', '84', '68', '50', '32']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>101.82</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PM-DB2762</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['15', '8', '26', '3', '5', '0', '18', '4', '16', '33', '16', '32', '23']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['169', '40', '12', '93', '56', '172', '58', '59', '30', '88', '62', '34']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>71.08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HI-8444PSI-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['4', '32', '26', '5', '11', '16', '8', '2', '4', '0', '25', '33', '27']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['94', '44', '55', '31', '32', '62', '127', '121', '75', '56', '84', '45']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '28', '15', '4', '1', '0', '0', '4', '1', '6', '0']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['84', '95', '55', '64', '75', '56', '150', '51', '32', '17', '8', '53']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>58.53</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HI-8420PSIF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '68', '11', '6', '6', '0', '0', '0', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['360', '84', '17', '10', '13', '92', '28', '2', '33', '20', '4', '95']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>57.85</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HI-3593PQTF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['6', '9', '0', '0', '0', '0', '14', '3', '2', '3', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['29', '132', '47', '84', '56', '83', '10', '86', '69', '14', '31', '17']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HI-3588PQIF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['19', '59', '45', '63', '55', '84', '53', '73', '21', '23', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>38.88</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HI-8282APJI-10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['3', '10', '28', '12', '16', '0', '0', '0', '2', '1', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['122', '103', '0', '29', '7', '12', '8', '16', '25', '23', '47', '28']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>32.82</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HI-3585PCI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['2', '0', '0', '0', '0', '0', '0', '0', '0', '0', '7', '1', '0']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['124', '89', '30', '17', '22', '8', '14', '76', '11', '31', '11', '0']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HI-8591PSM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['0', '5', '0', '0', '0', '3', '0', '0', '0', '4', '6', '3', '0']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['13', '32', '77', '1', '0', '17', '20', '12', '128', '3', '53', '3']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>30.98</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HI-8282J-44</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['3', '26', '0', '0', '0', '0', '0', '0', '20', '2', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['172', '52', '19', '11', '19', '12', '30', '11', '1', '19', '41', '1']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>29.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HI-3282PQI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['6', '0', '0', '16', '3', '3', '15', '3', '1', '10', '26', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['61', '98', '16', '19', '5', '29', '22', '44', '12', '20', '6', '40']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>29.07</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HI-8592PSI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['18', '22', '11', '19', '6', '2', '22', '0', '0', '5', '22', '40', '4']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['23', '26', '20', '9', '22', '54', '33', '14', '25', '5', '56', '50']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HI-3110PSIF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['0', '1', '7', '0', '0', '0', '10', '0', '1', '6', '7', '42', '16']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['28', '50', '13', '6', '0', '38', '20', '49', '62', '21', '14', '11']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HI-3182CDI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['23', '48', '3', '14', '15', '36', '42', '0', '3', '13', '7', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '15', '7', '0', '6', '16', '78', '107']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HI-8435PCI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['0', '3', '7', '0', '0', '0', '0', '0', '1', '11', '11', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['16', '34', '7', '0', '0', '20', '0', '15', '101', '0', '11', '0']</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HI-3593PCIF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '2', '0', '0', '0', '0', '3', '7', '0', '5']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['11', '49', '28', '22', '20', '15', '27', '17', '0', '36', '0', '1']</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>17.62</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HI-3593PCT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['6', '3', '0', '0', '0', '0', '0', '0', '0', '9', '0', '0', '12']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['105', '21', '3', '40', '23', '0', '6', '28', '0', '2', '12', '0']</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>17.42</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HI-8444PSTF-10</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['0', '0', '41', '14', '0', '0', '0', '0', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['3', '0', '1', '0', '0', '98', '2', '5', '5', '0', '41', '14']</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HI-4854PSTF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['0', '3', '0', '0', '0', '3', '0', '0', '0', '18', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['12', '33', '32', '3', '2', '24', '10', '27', '4', '30', '4', '2']</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HI-8448PSI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '6', '0', '0', '3', '0', '0', '12', '0', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['43', '91', '9', '20', '12', '10', '3', '0', '0', '2', '2', '7']</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HI-8583PQI-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['14', '129', '24', '7', '14', '0', '0', '1', '0', '6', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HI-8591PSI-40</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '3', '4', '23', '1', '0', '0', '0', '0', '0', '19']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['19', '13', '9', '2', '5', '26', '8', '14', '23', '1', '2', '33']</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HI-8583PQT-10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '2', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['3', '21', '42', '3', '0', '3', '25', '1', '1', '12', '10', '2']</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HI-8592PST</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>['14', '0', '0', '0', '0', '0', '4', '12', '50', '2', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['0', '7', '6', '0', '12', '4', '0', '0', '0', '20', '19', '6']</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HI-4850PSIF</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>['0', '1', '0', '0', '0', '2', '0', '0', '0', '0', '0', '2', '10']</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['6', '4', '11', '4', '0', '18', '6', '17', '0', '1', '2', '2']</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HI-4855PSTF</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['0', '2', '2', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['0', '18', '0', '0', '0', '22', '16', '0', '2', '4', '3', '0']</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HI-8588PSIF-10</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>['3', '12', '0', '0', '1', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['6', '0', '0', '8', '0', '0', '0', '0', '7', '3', '16', '1']</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HI-8282U</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['2', '5', '3', '2', '0', '30', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HI-3110PSI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '1', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['11', '0', '0', '0', '0', '16', '0', '3', '4', '3', '0', '1']</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HI-6121PCI</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>['19', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['7', '0', '0', '0', '0', '4', '0', '5', '0', '0', '19', '0']</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HI-3002PCIF</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '0', '0', '0', '0', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['12', '4', '4', '1', '1', '3', '2', '2', '2', '2', '5', '0']</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HI-3002PCIF</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['0', '1', '1', '0', '0', '0', '0', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['12', '4', '4', '1', '1', '3', '2', '2', '2', '2', '5', '0']</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HI-8584PQI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '0', '0', '0', '0', '0', '4', '13', '1', '0']</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['2', '1', '0', '0', '6', '1', '0', '1', '0', '0', '20', '0']</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HI-4853CRH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '2']</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['2', '0', '4', '18', '0', '9', '2', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>HI-5200PCWF</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3']</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['21', '0', '0', '9', '0', '0', '6', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HI-3282PJIF</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '1', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '2', '15', '15', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HI-8591PCI-40</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['15', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['0', '1', '0', '0', '0', '1', '0', '3', '0', '1', '15', '0']</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>HI-4855PSIF</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['2', '0', '5', '0', '0', '18', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HI-8591PCIF</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['0', '12', '13', '0', '0', '1', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HI-3717PCI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '4', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['1', '0', '0', '0', '0', '0', '0', '11', '5', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HI-3111PSIF</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '6', '0', '1', '3']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['4', '0', '6', '0', '0', '0', '0', '3', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HI-2130LBT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['0', '15', '1', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>HI8570PSIF</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['4', '0', '10', '0', '0', '0', '0', '0', '1', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>HI-8282C</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '7', '0', '0', '0', '1', '3', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>HI-3221PCIF</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['0', '6', '0', '0', '0', '3', '3', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>HI-8592PSMF</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['0', '3', '3', '2', '0', '1', '0', '0', '0', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>HI3110PSIF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '2', '0']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['1', '1', '0', '0', '0', '0', '0', '0', '5', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>HI-3222PCIF</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['0', '0', '1', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['5', '0', '0', '0', '0', '0', '0', '0', '0', '0', '3', '0']</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>HI-8382PDTF</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['0', '0', '2', '0', '0', '0', '6', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>HI-3585PCTF</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['0', '7', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>HI-8584PQIF</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['3', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '3', '0', '0', '0', '0', '0', '0', '1', '0']</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>HI-8460PCIF</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['0', '0', '2', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>HI-1570PSI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HI-15790PCTF</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HI3182PJI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>HI-3182PJIF</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>HI3182PST</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>HI3282PJI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>HI-3583PQIF-10</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>HI3584PQT10</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>HI-35870PQT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>HI-4850CRM</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>HI6010CT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>HI-6120PQI</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>HI-62003PQT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HI-8282CT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>HI-8382JT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>HI-84210PST</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>HI8424PTT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>HI-8460PCTF</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HI8583CJT10</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>HI8584PQT10</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>HI-8684PJI-10</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PM-DB2702+</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PM-DB2771+</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>HI-3111PSTF</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '6', '2', '0', '0']</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0', '0']</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="33.83203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>HI-8585PSI</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HI-8586PSI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HI-3593PQIF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HI-8596PSI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HI-3585PQT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HI-1573PSM</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HI-8585PSIF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HI-3220PQIF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PM-DB2762</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HI-8444PSI-10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HI-35930PQIF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HI-8420PSIF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HI-3593PQTF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Holt Integrated Circuits</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>